--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Gp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Gp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H2">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I2">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J2">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,33 +558,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.009511333333333332</v>
+        <v>0.009511333333333333</v>
       </c>
       <c r="N2">
         <v>0.028534</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="Q2">
-        <v>0.6220411619546665</v>
+        <v>0.6460093795466667</v>
       </c>
       <c r="R2">
-        <v>5.598370457592</v>
+        <v>5.81408441592</v>
       </c>
       <c r="S2">
-        <v>0.0234573392998008</v>
+        <v>0.01892741065509066</v>
       </c>
       <c r="T2">
-        <v>0.02345733929980081</v>
+        <v>0.01892741065509066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2623.51945</v>
+        <v>67.91996</v>
       </c>
       <c r="H3">
-        <v>7870.55835</v>
+        <v>203.75988</v>
       </c>
       <c r="I3">
-        <v>0.9409906676183405</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J3">
-        <v>0.9409906676183405</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.009511333333333332</v>
+        <v>0.002426333333333333</v>
       </c>
       <c r="N3">
-        <v>0.028534</v>
+        <v>0.007279</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2032502164018652</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2032502164018652</v>
       </c>
       <c r="Q3">
-        <v>24.95316799543333</v>
+        <v>0.1647964629466667</v>
       </c>
       <c r="R3">
-        <v>224.5785119589</v>
+        <v>1.48316816652</v>
       </c>
       <c r="S3">
-        <v>0.9409906676183405</v>
+        <v>0.004828366936230634</v>
       </c>
       <c r="T3">
-        <v>0.9409906676183405</v>
+        <v>0.004828366936230634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.220081</v>
+        <v>2623.51945</v>
       </c>
       <c r="H4">
-        <v>0.6602429999999999</v>
+        <v>7870.55835</v>
       </c>
       <c r="I4">
-        <v>7.89375383209421E-05</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J4">
-        <v>7.893753832094211E-05</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.009511333333333332</v>
+        <v>0.009511333333333333</v>
       </c>
       <c r="N4">
         <v>0.028534</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="Q4">
-        <v>0.002093263751333333</v>
+        <v>24.95316799543334</v>
       </c>
       <c r="R4">
-        <v>0.01883937376199999</v>
+        <v>224.5785119589</v>
       </c>
       <c r="S4">
-        <v>7.89375383209421E-05</v>
+        <v>0.7311021677834849</v>
       </c>
       <c r="T4">
-        <v>7.893753832094211E-05</v>
+        <v>0.731102167783485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>98.65010533333333</v>
+        <v>2623.51945</v>
       </c>
       <c r="H5">
-        <v>295.950316</v>
+        <v>7870.55835</v>
       </c>
       <c r="I5">
-        <v>0.03538332009630534</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J5">
-        <v>0.03538332009630534</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.009511333333333332</v>
+        <v>0.002426333333333333</v>
       </c>
       <c r="N5">
-        <v>0.028534</v>
+        <v>0.007279</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.2032502164018652</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.2032502164018652</v>
       </c>
       <c r="Q5">
-        <v>0.9382940351937775</v>
+        <v>6.365532692183334</v>
       </c>
       <c r="R5">
-        <v>8.444646316743999</v>
+        <v>57.28979422965</v>
       </c>
       <c r="S5">
-        <v>0.03538332009630534</v>
+        <v>0.1865035634434705</v>
       </c>
       <c r="T5">
-        <v>0.03538332009630534</v>
+        <v>0.1865035634434705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.250186</v>
+        <v>1.376679</v>
       </c>
       <c r="H6">
-        <v>0.7505580000000001</v>
+        <v>4.130037</v>
       </c>
       <c r="I6">
-        <v>8.973544723244271E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J6">
-        <v>8.973544723244272E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.009511333333333332</v>
+        <v>0.009511333333333333</v>
       </c>
       <c r="N6">
         <v>0.028534</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="Q6">
-        <v>0.002379602441333333</v>
+        <v>0.013094052862</v>
       </c>
       <c r="R6">
-        <v>0.021416421972</v>
+        <v>0.117846475758</v>
       </c>
       <c r="S6">
-        <v>8.973544723244271E-05</v>
+        <v>0.0003836422867922707</v>
       </c>
       <c r="T6">
-        <v>8.973544723244272E-05</v>
+        <v>0.0003836422867922707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.376679</v>
+      </c>
+      <c r="H7">
+        <v>4.130037</v>
+      </c>
+      <c r="I7">
+        <v>0.0004815091195378001</v>
+      </c>
+      <c r="J7">
+        <v>0.0004815091195378002</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.002426333333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.007279</v>
+      </c>
+      <c r="O7">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="P7">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="Q7">
+        <v>0.003340282147</v>
+      </c>
+      <c r="R7">
+        <v>0.030062539323</v>
+      </c>
+      <c r="S7">
+        <v>9.786683274552948E-05</v>
+      </c>
+      <c r="T7">
+        <v>9.786683274552948E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>164.8447596666666</v>
+      </c>
+      <c r="H8">
+        <v>494.534279</v>
+      </c>
+      <c r="I8">
+        <v>0.05765632735555414</v>
+      </c>
+      <c r="J8">
+        <v>0.05765632735555416</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.009511333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.028534</v>
+      </c>
+      <c r="O8">
+        <v>0.7967497835981349</v>
+      </c>
+      <c r="P8">
+        <v>0.7967497835981349</v>
+      </c>
+      <c r="Q8">
+        <v>1.567893457442889</v>
+      </c>
+      <c r="R8">
+        <v>14.111041116986</v>
+      </c>
+      <c r="S8">
+        <v>0.04593766634360098</v>
+      </c>
+      <c r="T8">
+        <v>0.045937666343601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>164.8447596666666</v>
+      </c>
+      <c r="H9">
+        <v>494.534279</v>
+      </c>
+      <c r="I9">
+        <v>0.05765632735555414</v>
+      </c>
+      <c r="J9">
+        <v>0.05765632735555416</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.002426333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.007279</v>
+      </c>
+      <c r="O9">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="P9">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="Q9">
+        <v>0.3999683352045555</v>
+      </c>
+      <c r="R9">
+        <v>3.599715016841</v>
+      </c>
+      <c r="S9">
+        <v>0.01171866101195316</v>
+      </c>
+      <c r="T9">
+        <v>0.01171866101195317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.431418</v>
+      </c>
+      <c r="H10">
+        <v>4.294254</v>
+      </c>
+      <c r="I10">
+        <v>0.0005006547066313635</v>
+      </c>
+      <c r="J10">
+        <v>0.0005006547066313636</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.009511333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.028534</v>
+      </c>
+      <c r="O10">
+        <v>0.7967497835981349</v>
+      </c>
+      <c r="P10">
+        <v>0.7967497835981349</v>
+      </c>
+      <c r="Q10">
+        <v>0.01361469373733333</v>
+      </c>
+      <c r="R10">
+        <v>0.122532243636</v>
+      </c>
+      <c r="S10">
+        <v>0.0003988965291659266</v>
+      </c>
+      <c r="T10">
+        <v>0.0003988965291659266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.431418</v>
+      </c>
+      <c r="H11">
+        <v>4.294254</v>
+      </c>
+      <c r="I11">
+        <v>0.0005006547066313635</v>
+      </c>
+      <c r="J11">
+        <v>0.0005006547066313636</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.002426333333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.007279</v>
+      </c>
+      <c r="O11">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="P11">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="Q11">
+        <v>0.003473097207333333</v>
+      </c>
+      <c r="R11">
+        <v>0.03125787486600001</v>
+      </c>
+      <c r="S11">
+        <v>0.000101758177465437</v>
+      </c>
+      <c r="T11">
+        <v>0.000101758177465437</v>
       </c>
     </row>
   </sheetData>
